--- a/resources/TestCases.xlsx
+++ b/resources/TestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t xml:space="preserve">Test case ID</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t xml:space="preserve">TC_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_012</t>
   </si>
 </sst>
 </file>
@@ -294,8 +309,8 @@
   </sheetPr>
   <dimension ref="A1:IT13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,7 +336,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -331,7 +346,7 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -341,7 +356,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -351,7 +366,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -361,7 +376,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -371,7 +386,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -381,7 +396,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -391,8 +406,12 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -645,18 +664,42 @@
       <c r="IT9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
     </row>
